--- a/sentiment/weekly/20250120-20250124.xlsx
+++ b/sentiment/weekly/20250120-20250124.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2025\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800227F-4520-4032-8770-DCF1DDD2BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AE832-17BE-4114-B6F4-E645C374B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>类别</t>
   </si>
@@ -715,13 +715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -790,6 +790,9 @@
       <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="140" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -982,16 +985,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>